--- a/biology/Botanique/Deutzia_crenata/Deutzia_crenata.xlsx
+++ b/biology/Botanique/Deutzia_crenata/Deutzia_crenata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Utsugi
-Deutzia crenata, appelé au Japon Utsugi (ウツギ, kanji : 空木 ou 卯木),  est un arbrisseau à feuilles caduques du genre Deutzia et de la famille des hydrangéacées (hortensias). Un de ses autres noms vernaculaires japonais est Unohana (卯の花). Dans la classification d'Engler on peut aussi le ranger dans la famille des saxifrages[1].
+Deutzia crenata, appelé au Japon Utsugi (ウツギ, kanji : 空木 ou 卯木),  est un arbrisseau à feuilles caduques du genre Deutzia et de la famille des hydrangéacées (hortensias). Un de ses autres noms vernaculaires japonais est Unohana (卯の花). Dans la classification d'Engler on peut aussi le ranger dans la famille des saxifrages.
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Noms vernaculaires</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le terme japonais Utsugi s'écrit avec les kanji 空 (utsu, vide) et 木 (ki, arbre) car ses tiges sont creuses[2] [3] [4]. Les fleurs apparaissent au mois lunaire du lapin (卯月, uzuki) (quatrième mois du calendrier lunaire japonais, correspondant à avril), raison pour laquelle on le nomme aussi la fleur de ce mois-ci c’est-à-dire, la fleur d'avril (卯の花, unohana) [3] [5] [4] .
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le terme japonais Utsugi s'écrit avec les kanji 空 (utsu, vide) et 木 (ki, arbre) car ses tiges sont creuses  . Les fleurs apparaissent au mois lunaire du lapin (卯月, uzuki) (quatrième mois du calendrier lunaire japonais, correspondant à avril), raison pour laquelle on le nomme aussi la fleur de ce mois-ci c’est-à-dire, la fleur d'avril (卯の花, unohana)    .
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La plante est native du Japon[6] et de la Chine. Au Japon, elle est largement distribuée dans le sud d'Hokkaido, Honshu, Shikoku et Kyushu [2] [3]. Deutzia crenata pousse naturellement dans les endroits ensoleillés tels que talus des routes, falaises, lisières de forêts, berges de rivières ainsi que les établissements humains en montagne : on l'utilise alors pour faire des haies dans les champs ou comme plante ornementale de jardin[2] [3] [7].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La plante est native du Japon et de la Chine. Au Japon, elle est largement distribuée dans le sud d'Hokkaido, Honshu, Shikoku et Kyushu  . Deutzia crenata pousse naturellement dans les endroits ensoleillés tels que talus des routes, falaises, lisières de forêts, berges de rivières ainsi que les établissements humains en montagne : on l'utilise alors pour faire des haies dans les champs ou comme plante ornementale de jardin  .
 </t>
         </is>
       </c>
@@ -574,13 +590,15 @@
           <t>Description et écologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est un arbuste feuillu à feuilles caduques d'une hauteur de 1 à 2,5 m[3], bien ramifié[3]. L'écorce est de couleur gris taupe à brune, et chez les spécimens âgés elle se fend verticalement et s'écaille grossièrement en lanières[8]. La jeune écorce est brune et se fend verticalement et superficiellement[8]. Au fur et à mesure que les branches poussent, elles perdent leur moelle et deviennent creuses. [2] L'écorce est brun grisâtre et se détache en vieillissant. [2] Les nouvelles branches sont brun rougeâtre et ont des poils disposés en étoile.
-La forme des feuilles est très variable, passant d'un ovale oblong d'une longueur de 5 à 12 cm à un ovale lancéolé, opposé à pétioles[3]. Les limbes des feuilles sont épais et raides avec des poils étoilés [2] [7] .
-La saison de floraison va de mai à juillet [2]. Des panicules sont attachées aux extrémités des branches et de nombreuses fleurs blanches d'un diamètre de 10 à 15 mm sont attachées ensemble et pendent pour fleurir. [3] Normalement, les pétales sont au nombre de cinq et allongés[3] mais il existe aussi des fleurs à fleurs doubles[4]. Il y a cinq étamines longues et courtes, et le filament a des ailes[7]. Des poils de forme étoilée poussent sur le calice[2].
-La saison des fruits va de septembre à octobre[3] . Les fruits sont des capsules de 4 à 6 mm de diamètre. Il a une forme sphérique comme un bol[3] . Un style subsiste à l'extrémité du fruit [3] [8] . À maturité en automne, il se divise en 3-4 [2] [3] et reste souvent sur les branches même en hiver [8] .
-Les bourgeons d'hiver sont opposés, enveloppés dans des écailles en forme d'œuf à poils étoilés, et les branches sont également densément peuplées de poils étoilés [8] Habituellement, il y a deux pseudo-bourgeons apicaux à l'extrémité de la branche et 8 à 10 écailles de bourgeon [8] . Les cicatrices foliaires sur les côtés des bourgeons d'hiver sont triangulaires, avec trois cicatrices vasculaires. [8]
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est un arbuste feuillu à feuilles caduques d'une hauteur de 1 à 2,5 m, bien ramifié. L'écorce est de couleur gris taupe à brune, et chez les spécimens âgés elle se fend verticalement et s'écaille grossièrement en lanières. La jeune écorce est brune et se fend verticalement et superficiellement. Au fur et à mesure que les branches poussent, elles perdent leur moelle et deviennent creuses.  L'écorce est brun grisâtre et se détache en vieillissant.  Les nouvelles branches sont brun rougeâtre et ont des poils disposés en étoile.
+La forme des feuilles est très variable, passant d'un ovale oblong d'une longueur de 5 à 12 cm à un ovale lancéolé, opposé à pétioles. Les limbes des feuilles sont épais et raides avec des poils étoilés   .
+La saison de floraison va de mai à juillet . Des panicules sont attachées aux extrémités des branches et de nombreuses fleurs blanches d'un diamètre de 10 à 15 mm sont attachées ensemble et pendent pour fleurir.  Normalement, les pétales sont au nombre de cinq et allongés mais il existe aussi des fleurs à fleurs doubles. Il y a cinq étamines longues et courtes, et le filament a des ailes. Des poils de forme étoilée poussent sur le calice.
+La saison des fruits va de septembre à octobre . Les fruits sont des capsules de 4 à 6 mm de diamètre. Il a une forme sphérique comme un bol . Un style subsiste à l'extrémité du fruit   . À maturité en automne, il se divise en 3-4   et reste souvent sur les branches même en hiver  .
+Les bourgeons d'hiver sont opposés, enveloppés dans des écailles en forme d'œuf à poils étoilés, et les branches sont également densément peuplées de poils étoilés  Habituellement, il y a deux pseudo-bourgeons apicaux à l'extrémité de la branche et 8 à 10 écailles de bourgeon  . Les cicatrices foliaires sur les côtés des bourgeons d'hiver sont triangulaires, avec trois cicatrices vasculaires. 
 </t>
         </is>
       </c>
@@ -609,11 +627,13 @@
           <t>Deutzia crenata dans la culture japonaise</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Au Japon, Deutzia crenata est couramment cultivé comme arbuste ornemental. Il est également planté sur les bordures des champs et utilisé comme repère pour les frontières terrestres [7]. Le tronc sert à faire les chevilles de bois utilisés en construction traditionnelle japonaise (kigumi)[1] .
-Les fleurs d'un blanc pur sont prisées, notamment des poètes depuis les temps anciens comme un signe traditionnel du début de l'été[4]. Dans le livre Notes de chevet de Sei Shonagon, l'auteur relate une excursion de groupe pour aller écouter le chant du petit coucou, une autre coutume du début de l'été, dans laquelle  la voiture est décorée de branches d'unohana pliées. Dans la période contemporaine, il reste un symbole du début de l'été : il est par exemple cité dans la chanson Summer is not coming.
-L' idiome unohana kutashi fait référence à la longue pluie de la fin mai, c'est-à-dire la pluie qui pourrit les fleurs [9] [4]. Il est souvent utilisé dans les haïkus en tant que kigo (mot saisonnier), avec des significations telles que « pluie de fleurs » ou « pluie de mai » [9] [4]. Dans le langage floral japonais (hanakotoba), la fleur d'utsugi symbolise la mémoire et la dignité [4].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Au Japon, Deutzia crenata est couramment cultivé comme arbuste ornemental. Il est également planté sur les bordures des champs et utilisé comme repère pour les frontières terrestres . Le tronc sert à faire les chevilles de bois utilisés en construction traditionnelle japonaise (kigumi) .
+Les fleurs d'un blanc pur sont prisées, notamment des poètes depuis les temps anciens comme un signe traditionnel du début de l'été. Dans le livre Notes de chevet de Sei Shonagon, l'auteur relate une excursion de groupe pour aller écouter le chant du petit coucou, une autre coutume du début de l'été, dans laquelle  la voiture est décorée de branches d'unohana pliées. Dans la période contemporaine, il reste un symbole du début de l'été : il est par exemple cité dans la chanson Summer is not coming.
+L' idiome unohana kutashi fait référence à la longue pluie de la fin mai, c'est-à-dire la pluie qui pourrit les fleurs  . Il est souvent utilisé dans les haïkus en tant que kigo (mot saisonnier), avec des significations telles que « pluie de fleurs » ou « pluie de mai »  . Dans le langage floral japonais (hanakotoba), la fleur d'utsugi symbolise la mémoire et la dignité .
 </t>
         </is>
       </c>
@@ -642,7 +662,9 @@
           <t>Sous-classement</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Il existe de nombreuses variétés de Deutzia crenata en plus de la variété « utsugi de velours ».
 Velours Utsugi Deutzia crenata Sieb. Et Zucc. Var. Heterotricha (Rehder) H. Hara
